--- a/R_code/2020_03_26_Imperial_Sweden/imperial_model.xlsx
+++ b/R_code/2020_03_26_Imperial_Sweden/imperial_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstarck/Desktop/Cov/Site/2020_03_26_Imperial_Sweden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstarck/Documents/GitHub/france/R_code/2020_03_26_Imperial_Sweden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FB1D56-912E-144F-B1A9-A52C3A5D0321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F6E02-A3C1-8A46-9E7F-2998BFDC7651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-940" yWindow="-19980" windowWidth="25600" windowHeight="19980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Citations rapport" sheetId="1" r:id="rId1"/>
@@ -189,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -687,7 +687,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -732,14 +732,14 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,12 +747,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,57 +781,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,7 +843,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -910,7 +910,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1352,7 +1352,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2039430767"/>
@@ -1397,7 +1397,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095491359"/>
@@ -1443,7 +1443,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1458,7 +1458,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1520,7 +1520,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1783,7 +1783,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099788879"/>
@@ -1828,7 +1828,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2028910767"/>
@@ -1874,7 +1874,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1889,7 +1889,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1951,7 +1951,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2214,7 +2214,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099864943"/>
@@ -2259,7 +2259,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2100065807"/>
@@ -2305,7 +2305,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2320,7 +2320,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2396,7 +2396,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2603,7 +2603,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -2648,7 +2648,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -2696,7 +2696,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2711,7 +2711,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2778,7 +2778,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3433,7 +3433,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2039430767"/>
@@ -3478,7 +3478,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095491359"/>
@@ -3524,7 +3524,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3539,7 +3539,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3601,7 +3601,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3864,7 +3864,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099788879"/>
@@ -3909,7 +3909,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2028910767"/>
@@ -3955,7 +3955,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3970,7 +3970,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4032,7 +4032,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4295,7 +4295,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099864943"/>
@@ -4340,7 +4340,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2100065807"/>
@@ -4386,7 +4386,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4401,7 +4401,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4477,7 +4477,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4684,7 +4684,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -4743,7 +4743,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -4791,7 +4791,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4806,7 +4806,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4885,7 +4885,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5408,7 +5408,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -5453,7 +5453,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -5501,7 +5501,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14669,7 +14669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15035,7 +15035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54965D58-17FD-5645-8B10-230DA9462C70}">
   <dimension ref="B1:AD97"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
@@ -15083,7 +15083,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="20"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="9"/>
       <c r="AA2" s="7"/>
     </row>
@@ -15107,7 +15107,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="20"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="9"/>
       <c r="AA3" s="7"/>
       <c r="AC3" t="s">
@@ -15357,10 +15357,10 @@
       <c r="F12" s="11"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="21"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="22"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F46" s="2"/>
@@ -15378,7 +15378,7 @@
       <c r="D67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -15474,7 +15474,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
-      <c r="W73" s="20"/>
+      <c r="W73" s="22"/>
       <c r="X73" s="19"/>
       <c r="AB73" s="7"/>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
-      <c r="W74" s="20"/>
+      <c r="W74" s="22"/>
       <c r="X74" s="19"/>
       <c r="AB74" s="7"/>
       <c r="AD74" t="s">
@@ -15691,8 +15691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD9BBA-8FA2-C14D-BC0F-BEA271B81B76}">
   <dimension ref="A12:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="65" workbookViewId="0">
-      <selection activeCell="AI58" sqref="AI58"/>
+    <sheetView topLeftCell="A37" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15725,7 +15725,7 @@
       <c r="N12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="O12" s="21" t="s">
         <v>47</v>
       </c>
       <c r="P12" t="s">
@@ -16285,7 +16285,7 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="15">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="14">
@@ -16303,13 +16303,13 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="16">
         <v>25475</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="13">
         <v>134492</v>
       </c>
@@ -16317,13 +16317,13 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="16">
         <v>39567</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="13">
         <v>171191</v>
       </c>
@@ -16331,13 +16331,13 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15">
         <v>44911</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="14">
         <v>188432</v>
       </c>
@@ -16345,7 +16345,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="15">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="14">
@@ -16363,11 +16363,11 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="16">
         <v>46253</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="13">
         <v>178279</v>
       </c>
@@ -16375,11 +16375,11 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="16">
         <v>51540</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="13">
         <v>196261</v>
       </c>
@@ -16387,11 +16387,11 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="15">
         <v>56324</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="14">
         <v>212131</v>
       </c>
@@ -16399,13 +16399,13 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="15">
         <v>88019</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="14">
@@ -16415,11 +16415,11 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="16">
         <v>100170</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="13">
         <v>344765</v>
       </c>
@@ -16427,11 +16427,11 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="16">
         <v>110628</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="13">
         <v>373102</v>
       </c>
@@ -16439,11 +16439,11 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="15">
         <v>119531</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="14">
         <v>396602</v>
       </c>
@@ -16451,13 +16451,13 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="16">
         <v>19166</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="13">
@@ -16467,11 +16467,11 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="13">
         <v>79040</v>
       </c>
